--- a/common/exam-materials-print/files/考场安排导入模板-样例.xlsx
+++ b/common/exam-materials-print/files/考场安排导入模板-样例.xlsx
@@ -81,7 +81,7 @@
     <t>备用卷数</t>
   </si>
   <si>
-    <t>光盘数</t>
+    <t>听力盘数</t>
   </si>
   <si>
     <t>试卷捆科目合并</t>
@@ -511,15 +511,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
